--- a/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
+++ b/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
@@ -19,12 +19,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公..尺）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺南市安南區海東段00450069地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區海東段00450070地號</t>
+  </si>
+  <si>
+    <t>165thSt.FlushingNewYorkBlock5250Lot26</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>許添財</t>
+  </si>
+  <si>
+    <t>洪淑貞</t>
+  </si>
+  <si>
+    <t>許添財洪淑頁</t>
+  </si>
+  <si>
+    <t>87年07月03日</t>
+  </si>
+  <si>
+    <t>88年08月16日</t>
+  </si>
+  <si>
+    <t>81年05月15日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過5年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>tmpbb0f1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
+  </si>
+  <si>
+    <t>面積（平方.公尺）</t>
   </si>
   <si>
     <t>權利範圍(持分）</t>
@@ -42,61 +132,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺南市安南區海東段0045-0069 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段0045-0070 地號</t>
-  </si>
-  <si>
-    <t>165th St., Flushing, New York, Block 5250 Lot26</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>許添財</t>
-  </si>
-  <si>
-    <t>洪淑貞</t>
-  </si>
-  <si>
-    <t>許添財 洪淑頁</t>
-  </si>
-  <si>
-    <t>87年07月 03日</t>
-  </si>
-  <si>
-    <t>88年08月 16日</t>
-  </si>
-  <si>
-    <t>81年05月 15日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過5年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方.公尺）</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段01774-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段01773-000 建號</t>
-  </si>
-  <si>
-    <t>許添財 洪淑貞</t>
+    <t>臺南市安南區海東段01774000建號</t>
+  </si>
+  <si>
+    <t>臺南市安南區海東段01773000建號</t>
+  </si>
+  <si>
+    <t>許添財洪淑貞</t>
   </si>
   <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>廠牌_型號</t>
+    <t>廠牌型號</t>
   </si>
   <si>
     <t>汽缸容量</t>
@@ -105,19 +153,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>登記（取'得）時間</t>
-  </si>
-  <si>
-    <t>國瑞-MVIEPE</t>
-  </si>
-  <si>
-    <t>2，995</t>
-  </si>
-  <si>
-    <t>93年09月 23日</t>
-  </si>
-  <si>
-    <t>1，100，000</t>
+    <t>國瑞MVIEPE</t>
+  </si>
+  <si>
+    <t>2995</t>
+  </si>
+  <si>
+    <t>93年09月23日</t>
+  </si>
+  <si>
+    <t>1100000</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -135,7 +180,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行安平分 行</t>
+    <t>臺灣中小企業銀行安平分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -144,7 +189,7 @@
     <t>臺灣銀行南都分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行駐立分 行</t>
+    <t>台北富邦商業銀行駐立分行</t>
   </si>
   <si>
     <t>華南商業銀行東台南分行</t>
@@ -201,7 +246,7 @@
     <t>財.產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -210,7 +255,7 @@
     <t>黃金3431克</t>
   </si>
   <si>
-    <t>3，.918，202(台灣銀行買進牌 價 1142/g)</t>
+    <t>3.918202(台灣銀行買進牌價1142g)</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -225,7 +270,7 @@
     <t>中國人壽</t>
   </si>
   <si>
-    <t>中國人壽鑫好利多多萬能保 險</t>
+    <t>中國人壽鑫好利多多萬能保險</t>
   </si>
 </sst>
 </file>
@@ -584,13 +629,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,83 +657,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>85.59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>639</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>85.59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>639</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>464.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2">
+        <v>639</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -706,25 +835,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -732,25 +861,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>282.77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -758,25 +887,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>282.77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -784,25 +913,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>465.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -820,22 +949,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -843,22 +972,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -876,22 +1005,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -899,16 +1028,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -920,16 +1049,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -941,16 +1070,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -962,16 +1091,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -983,16 +1112,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1004,16 +1133,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1025,16 +1154,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1046,16 +1175,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1067,16 +1196,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
         <v>370.01</v>
@@ -1090,16 +1219,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2">
         <v>2000.38</v>
@@ -1113,16 +1242,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2">
         <v>102158.7</v>
@@ -1136,16 +1265,16 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
         <v>16888.33</v>
@@ -1159,16 +1288,16 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
         <v>4987.53</v>
@@ -1182,16 +1311,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
         <v>4285.19</v>
@@ -1205,16 +1334,16 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2">
         <v>4285.19</v>
@@ -1228,16 +1357,16 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1259,16 +1388,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1276,16 +1405,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1303,13 +1432,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1317,13 +1446,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
+++ b/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺南市安南區海東段00450069地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺南市安南區海東段00450070地號</t>
@@ -75,84 +78,51 @@
     <t>全部</t>
   </si>
   <si>
+    <t>洪淑貞</t>
+  </si>
+  <si>
+    <t>許添財洪淑頁</t>
+  </si>
+  <si>
+    <t>88年08月16日</t>
+  </si>
+  <si>
+    <t>81年05月15日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過5年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
     <t>許添財</t>
   </si>
   <si>
-    <t>洪淑貞</t>
-  </si>
-  <si>
-    <t>許添財洪淑頁</t>
-  </si>
-  <si>
-    <t>87年07月03日</t>
-  </si>
-  <si>
-    <t>88年08月16日</t>
-  </si>
-  <si>
-    <t>81年05月15日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過5年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
     <t>tmpbb0f1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方.公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺南市安南區海東段01774000建號</t>
   </si>
   <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>臺南市安南區海東段01773000建號</t>
   </si>
   <si>
     <t>許添財洪淑貞</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>國瑞MVIEPE</t>
   </si>
   <si>
@@ -165,24 +135,15 @@
     <t>1100000</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣中小企業銀行安平分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -216,9 +177,6 @@
     <t>第一商業銀行安南分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -231,9 +189,6 @@
     <t>其他存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -243,28 +198,10 @@
     <t>洪淑頁</t>
   </si>
   <si>
-    <t>財.產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>黃金3431克</t>
   </si>
   <si>
     <t>3.918202(台灣銀行買進牌價1142g)</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保.險.名.稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
   </si>
   <si>
     <t>中國人壽</t>
@@ -629,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,43 +615,49 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>85.59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>639</v>
@@ -723,45 +666,51 @@
         <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>85.59</v>
+        <v>464.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>639</v>
@@ -770,54 +719,13 @@
         <v>29</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>464.5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2">
-        <v>639</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -837,101 +745,75 @@
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>282.77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>282.77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>282.77</v>
+        <v>465.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>465.5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +823,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -949,378 +864,322 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>1915378</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1915378</v>
+        <v>592727</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>592727</v>
+        <v>6852611</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>6852611</v>
+        <v>57244</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>57244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>254</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1845</v>
+        <v>11677</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>11677</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
+        <v>370.01</v>
+      </c>
       <c r="G9" s="2">
-        <v>388</v>
+        <v>11007.79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
-        <v>370.01</v>
+        <v>2000.38</v>
       </c>
       <c r="G10" s="2">
-        <v>11007.79</v>
+        <v>59511.3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
-        <v>2000.38</v>
+        <v>102158.7</v>
       </c>
       <c r="G11" s="2">
-        <v>59511.3</v>
+        <v>3039221.32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2">
-        <v>102158.7</v>
+        <v>16888.33</v>
       </c>
       <c r="G12" s="2">
-        <v>3039221.32</v>
+        <v>502427.81</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
-        <v>16888.33</v>
+        <v>4987.53</v>
       </c>
       <c r="G13" s="2">
-        <v>502427.81</v>
+        <v>148379.01</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2">
-        <v>4987.53</v>
+        <v>4285.19</v>
       </c>
       <c r="G14" s="2">
-        <v>148379.01</v>
+        <v>127484.4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
         <v>4285.19</v>
@@ -1331,45 +1190,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4285.19</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>127484.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>62</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
         <v>3201</v>
       </c>
     </row>
@@ -1380,41 +1216,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1424,35 +1243,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
+++ b/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺南市安南區海東段00450069地號</t>
+  </si>
+  <si>
     <t>臺南市安南區海東段00450070地號</t>
   </si>
   <si>
@@ -78,12 +81,18 @@
     <t>全部</t>
   </si>
   <si>
+    <t>許添財</t>
+  </si>
+  <si>
     <t>洪淑貞</t>
   </si>
   <si>
     <t>許添財洪淑頁</t>
   </si>
   <si>
+    <t>87年07月03日</t>
+  </si>
+  <si>
     <t>88年08月16日</t>
   </si>
   <si>
@@ -105,22 +114,19 @@
     <t>2013-12-31</t>
   </si>
   <si>
-    <t>許添財</t>
-  </si>
-  <si>
     <t>tmpbb0f1</t>
   </si>
   <si>
     <t>臺南市安南區海東段01774000建號</t>
   </si>
   <si>
+    <t>臺南市安南區海東段01773000建號</t>
+  </si>
+  <si>
+    <t>許添財洪淑貞</t>
+  </si>
+  <si>
     <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段01773000建號</t>
-  </si>
-  <si>
-    <t>許添財洪淑貞</t>
   </si>
   <si>
     <t>國瑞MVIEPE</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +630,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -633,40 +639,40 @@
         <v>85.59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>639</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
@@ -677,54 +683,107 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>464.5</v>
+        <v>85.59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>639</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>464.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>639</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>464.5</v>
       </c>
     </row>
@@ -735,38 +794,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1">
-        <v>282.77</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>32</v>
@@ -775,45 +861,152 @@
         <v>282.77</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>639</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>282.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>282.77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>639</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>282.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="2">
+        <v>465.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>639</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>465.5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -823,30 +1016,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,16 +1080,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -882,304 +1098,302 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>592727</v>
+        <v>1915378</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>6852611</v>
+        <v>592727</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>57244</v>
+        <v>6852611</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>254</v>
+        <v>57244</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1845</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>11677</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>388</v>
+        <v>11677</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2">
-        <v>370.01</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>11007.79</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
-        <v>2000.38</v>
+        <v>370.01</v>
       </c>
       <c r="G10" s="2">
-        <v>59511.3</v>
+        <v>11007.79</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2">
-        <v>102158.7</v>
+        <v>2000.38</v>
       </c>
       <c r="G11" s="2">
-        <v>3039221.32</v>
+        <v>59511.3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
-        <v>16888.33</v>
+        <v>102158.7</v>
       </c>
       <c r="G12" s="2">
-        <v>502427.81</v>
+        <v>3039221.32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>4987.53</v>
+        <v>16888.33</v>
       </c>
       <c r="G13" s="2">
-        <v>148379.01</v>
+        <v>502427.81</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
-        <v>4285.19</v>
+        <v>4987.53</v>
       </c>
       <c r="G14" s="2">
-        <v>127484.4</v>
+        <v>148379.01</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
         <v>4285.19</v>
@@ -1190,22 +1404,45 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4285.19</v>
+      </c>
+      <c r="G16" s="2">
+        <v>127484.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>62</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>3201</v>
       </c>
     </row>
@@ -1216,24 +1453,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1243,21 +1497,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
+++ b/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -129,10 +129,10 @@
     <t>(超過五年）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>國瑞MVIEPE</t>
-  </si>
-  <si>
-    <t>2995</t>
   </si>
   <si>
     <t>93年09月23日</t>
@@ -1016,41 +1016,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2995</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1063,6 +1084,27 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>639</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
+++ b/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -129,6 +129,9 @@
     <t>(超過五年）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
   </si>
   <si>
     <t>1100000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣中小企業銀行安平分行</t>
@@ -876,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -929,7 +935,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -982,7 +988,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1068,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1077,16 +1083,16 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1122,13 +1128,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1143,13 +1149,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1164,16 +1170,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1185,13 +1191,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1206,16 +1212,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1227,13 +1233,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1248,13 +1254,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1269,13 +1275,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1290,13 +1296,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1311,13 +1317,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1334,13 +1340,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -1357,13 +1363,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1380,13 +1386,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1403,13 +1409,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1426,13 +1432,13 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1449,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1472,13 +1478,13 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -1503,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1512,7 +1518,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1520,7 +1526,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1529,7 +1535,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1547,10 +1553,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1561,10 +1567,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
+++ b/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -147,60 +147,69 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣中小企業銀行安平分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行南都分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行駐立分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行東台南分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行運河分行</t>
+  </si>
+  <si>
+    <t>金城商業銀行府城分行：</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>美商花旗銀行</t>
+  </si>
+  <si>
+    <t>日商三菱東京日聯銀行</t>
+  </si>
+  <si>
+    <t>美商摩根大通銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行安南分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行南都分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行駐立分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行東台南分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行運河分行</t>
-  </si>
-  <si>
-    <t>金城商業銀行府城分行：</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>美商花旗銀行</t>
-  </si>
-  <si>
-    <t>日商三菱東京日聯銀行</t>
-  </si>
-  <si>
-    <t>美商摩根大通銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行安南分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
   </si>
   <si>
     <t>洪淑頁</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>黃金3431克</t>
@@ -1120,13 +1132,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1137,361 +1149,687 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1915378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>1915378</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>639</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2">
         <v>592727</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>639</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>6852611</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>639</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+        <v>65</v>
+      </c>
+      <c r="F5" s="2">
         <v>57244</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>639</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>254</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>639</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>1845</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>639</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>11677</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>639</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>388</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>639</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="2">
-        <v>370.01</v>
-      </c>
-      <c r="G10" s="2">
         <v>11007.79</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>639</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2">
-        <v>2000.38</v>
-      </c>
-      <c r="G11" s="2">
         <v>59511.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>639</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="2">
-        <v>102158.7</v>
-      </c>
-      <c r="G12" s="2">
         <v>3039221.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>639</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>16888.33</v>
-      </c>
-      <c r="G13" s="2">
         <v>502427.81</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>639</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="2">
-        <v>4987.53</v>
-      </c>
-      <c r="G14" s="2">
         <v>148379.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>639</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="2">
-        <v>4285.19</v>
-      </c>
-      <c r="G15" s="2">
         <v>127484.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>639</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="2">
-        <v>4285.19</v>
-      </c>
-      <c r="G16" s="2">
         <v>127484.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>639</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>3201</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>639</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1518,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1526,7 +1864,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1535,7 +1873,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1553,10 +1891,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1567,10 +1905,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
+++ b/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -222,10 +222,16 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>黃金3431克</t>
   </si>
   <si>
-    <t>3.918202(台灣銀行買進牌價1142g)</t>
+    <t>3918202(台灣銀行買進牌價1142g)</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>中國人壽</t>
@@ -1839,32 +1845,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1873,7 +1900,28 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>639</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +1939,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1905,10 +1953,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
+++ b/legislator/property/output/normal/許添財_2013-12-31_財產申報表_tmpbb0f1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -231,13 +231,19 @@
     <t>3918202(台灣銀行買進牌價1142g)</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>中國人壽</t>
   </si>
   <si>
     <t>中國人壽鑫好利多多萬能保險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1931,35 +1937,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>639</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
